--- a/TUFA/nanqischedule.xlsx
+++ b/TUFA/nanqischedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13155"/>
+    <workbookView windowWidth="27720" windowHeight="13155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>周次</t>
   </si>
@@ -144,19 +144,36 @@
   </si>
   <si>
     <t>W20</t>
+  </si>
+  <si>
+    <t>紫荆</t>
+  </si>
+  <si>
+    <t>W13</t>
+  </si>
+  <si>
+    <t>W14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="m&quot;-&quot;d"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,69 +188,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,17 +203,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +215,36 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,23 +263,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,6 +285,52 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -354,6 +371,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,151 +503,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,17 +754,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,16 +788,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,16 +814,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,176 +851,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1054,13 +1080,7 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1420,585 +1440,585 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>43232</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="21">
         <v>0.583333333333333</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="18">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="21">
         <v>0.666666666666667</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36">
+      <c r="I3" s="38"/>
+      <c r="J3" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
         <v>43233</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="20">
+      <c r="E4" s="8"/>
+      <c r="F4" s="23">
         <v>0.583333333333333</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="36">
+      <c r="I4" s="38"/>
+      <c r="J4" s="37">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="20">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="23">
         <v>0.666666666666667</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36">
+      <c r="I5" s="38"/>
+      <c r="J5" s="37">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>12</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>43237</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="24">
         <v>0.5625</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36">
+      <c r="I6" s="38"/>
+      <c r="J6" s="37">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="21">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="24">
         <v>0.635416666666667</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36">
+      <c r="I7" s="38"/>
+      <c r="J7" s="37">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7">
         <v>43239</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="20">
+      <c r="E8" s="8"/>
+      <c r="F8" s="23">
         <v>0.583333333333333</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="36">
+      <c r="I8" s="38"/>
+      <c r="J8" s="37">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="20">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="23">
         <v>0.666666666666667</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="36">
+      <c r="I9" s="38"/>
+      <c r="J9" s="37">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7">
         <v>43240</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="17">
         <v>3</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="24">
         <v>0.583333333333333</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="36">
+      <c r="I10" s="38"/>
+      <c r="J10" s="37">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="21">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="36">
+      <c r="I11" s="25"/>
+      <c r="J11" s="37">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="7">
         <v>43244</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <v>4</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="24">
         <v>0.625</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="37">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="37">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
         <v>43246</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>3</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="37">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="37">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7">
         <v>43247</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <v>5</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="24">
         <v>0.666666666666667</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="37">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="37">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="7">
         <v>43251</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="28">
         <v>0.583333333333333</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="37">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="28" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="37">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="11"/>
-      <c r="B20" s="4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="7">
         <v>43254</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="32">
         <v>0.583333333333333</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="37">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="12"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31">
+      <c r="A21" s="15"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="32">
         <v>0.666666666666667</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="36">
+      <c r="I21" s="38"/>
+      <c r="J21" s="37">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>15</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="16">
         <v>43260</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="28" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="32">
         <v>0.583333333333333</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="36">
+      <c r="I22" s="38"/>
+      <c r="J22" s="37">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="33" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="35">
         <v>0.666666666666667</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="36">
+      <c r="I23" s="20"/>
+      <c r="J23" s="37">
         <v>22</v>
       </c>
     </row>
@@ -2064,10 +2084,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2076,583 +2096,400 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>43232</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="3">
         <v>0.583333333333333</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
+        <v>43233</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43239</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2">
+        <v>43240</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43246</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2">
+        <v>43247</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="J2" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="18">
+      <c r="B14" s="2">
+        <v>43253</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4">
-        <v>43233</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="20">
+      <c r="B16" s="2">
+        <v>43261</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3">
         <v>0.666666666666667</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
-        <v>43237</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0.5625</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
         <v>15</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="21">
-        <v>0.635416666666667</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4">
-        <v>43239</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="20">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="20">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4">
-        <v>43240</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="14">
-        <v>3</v>
-      </c>
-      <c r="F10" s="22">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="3">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4">
-        <v>43244</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5">
-        <v>3</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4">
-        <v>43246</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4">
-        <v>43247</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5">
-        <v>5</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
-        <v>43251</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="27">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="36">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="11"/>
-      <c r="B20" s="4">
-        <v>43254</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="31">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="12"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3">
-        <v>15</v>
-      </c>
-      <c r="B22" s="13">
-        <v>43260</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="31">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="34">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="36">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="30">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -2660,10 +2497,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -2671,34 +2504,18 @@
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D23"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="I2:I11"/>
-    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="I2:I16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/TUFA/nanqischedule.xlsx
+++ b/TUFA/nanqischedule.xlsx
@@ -113,7 +113,7 @@
     <t>RB</t>
   </si>
   <si>
-    <t>TA</t>
+    <t>A3</t>
   </si>
   <si>
     <t>半决赛</t>
@@ -149,7 +149,7 @@
     <t>紫荆</t>
   </si>
   <si>
-    <t>电动小马达</t>
+    <t>电动小马达队</t>
   </si>
   <si>
     <t>CSSSUnited</t>
@@ -182,19 +182,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m&quot;-&quot;d"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,28 +200,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -262,7 +233,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -271,6 +242,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +287,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,8 +308,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,29 +331,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -353,21 +339,14 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,13 +391,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,19 +451,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,164 +563,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -678,81 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -760,7 +640,39 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -768,8 +680,153 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -790,6 +847,15 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -797,20 +863,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -828,102 +914,32 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,26 +959,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,32 +1011,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1027,345 +1019,357 @@
     </border>
   </borders>
   <cellStyleXfs count="51">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="6" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="9" borderId="4" xfId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="6" borderId="4" xfId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="5" borderId="4" xfId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="7" borderId="4" xfId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="6" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="16" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="4" xfId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="4" xfId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="4" xfId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="7" borderId="4" xfId="15" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="23" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1688,588 +1692,587 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="60" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="22">
+      <c r="A2" s="29">
         <v>11</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="30">
         <v>43232</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="31">
         <v>1</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="45">
         <v>0.583333333333333</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="58">
+      <c r="J2" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="42">
+      <c r="A3" s="29"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="45">
         <v>0.666666666666667</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="58">
+      <c r="I3" s="31"/>
+      <c r="J3" s="61">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23">
+      <c r="A4" s="29"/>
+      <c r="B4" s="30">
         <v>43233</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="44">
+      <c r="E4" s="31"/>
+      <c r="F4" s="47">
         <v>0.583333333333333</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="58">
+      <c r="I4" s="31"/>
+      <c r="J4" s="61">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="22"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="44">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="47">
         <v>0.666666666666667</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="58">
+      <c r="I5" s="31"/>
+      <c r="J5" s="61">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="22">
+      <c r="A6" s="29">
         <v>12</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="30">
         <v>43237</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="31">
         <v>2</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="48">
         <v>0.5625</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="58">
+      <c r="I6" s="31"/>
+      <c r="J6" s="61">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="22"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="45">
+      <c r="A7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="48">
         <v>0.635416666666667</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="58">
+      <c r="I7" s="31"/>
+      <c r="J7" s="61">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30">
         <v>43239</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="44">
+      <c r="E8" s="31"/>
+      <c r="F8" s="47">
         <v>0.583333333333333</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="58">
+      <c r="I8" s="31"/>
+      <c r="J8" s="61">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="44">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="47">
         <v>0.666666666666667</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="58">
+      <c r="I9" s="31"/>
+      <c r="J9" s="61">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23">
+      <c r="A10" s="29"/>
+      <c r="B10" s="30">
         <v>43240</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="31">
         <v>3</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="48">
         <v>0.583333333333333</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="58">
+      <c r="I10" s="31"/>
+      <c r="J10" s="61">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="45">
+      <c r="A11" s="29"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="48">
         <v>0.666666666666667</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="58">
+      <c r="I11" s="31"/>
+      <c r="J11" s="61">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="22">
+      <c r="A12" s="29">
         <v>13</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="30">
         <v>43244</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="31">
         <v>4</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="48">
         <v>0.625</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="61">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="61">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30">
         <v>43246</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="31">
         <v>3</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="49">
         <v>0.666666666666667</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="61">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="61">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30">
         <v>43247</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="31">
         <v>5</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="48">
         <v>0.666666666666667</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="61">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="22"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="58">
+      <c r="J17" s="61">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="22">
+      <c r="A18" s="29">
         <v>14</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="30">
         <v>43251</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48">
+      <c r="F18" s="51">
         <v>0.625</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="61">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30">
         <v>43254</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="48">
+      <c r="D19" s="10"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="51">
         <v>0.583333333333333</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="59"/>
-      <c r="J19" s="58">
+      <c r="I19" s="63"/>
+      <c r="J19" s="61">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="48">
+      <c r="A20" s="29"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="51">
         <v>0.666666666666667</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="59"/>
-      <c r="J20" s="58">
+      <c r="I20" s="63"/>
+      <c r="J20" s="61">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="31">
+      <c r="A21" s="36">
         <v>15</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="37">
         <v>43258</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="48">
+      <c r="F21" s="51">
         <v>0.5625</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="58">
+      <c r="I21" s="63"/>
+      <c r="J21" s="61">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="48">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="51">
         <v>0.635416666666667</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="59"/>
-      <c r="J22" s="58">
+      <c r="I22" s="63"/>
+      <c r="J22" s="61">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:10">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43">
         <v>43261</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55">
+      <c r="F23" s="58">
         <v>0.666666666666667</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="H23" s="56" t="s">
+      <c r="H23" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61">
+      <c r="I23" s="64"/>
+      <c r="J23" s="65">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -2303,19 +2306,20 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D23"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="I2:I11"/>
     <mergeCell ref="I18:I23"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D18:E20"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2328,7 +2332,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2364,7 +2368,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2384,7 +2388,7 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="14">
         <v>0.583333333333333</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -2396,7 +2400,7 @@
       <c r="I2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="24">
         <v>1</v>
       </c>
     </row>
@@ -2406,7 +2410,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="13">
+      <c r="F3" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -2416,7 +2420,7 @@
         <v>45</v>
       </c>
       <c r="I3" s="5"/>
-      <c r="J3" s="18">
+      <c r="J3" s="24">
         <v>2</v>
       </c>
     </row>
@@ -2432,7 +2436,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="14">
+      <c r="F4" s="15">
         <v>0.583333333333333</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -2442,7 +2446,7 @@
         <v>47</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="18">
+      <c r="J4" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2452,7 +2456,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <v>0.666666666666667</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -2462,7 +2466,7 @@
         <v>49</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="18">
+      <c r="J5" s="24">
         <v>4</v>
       </c>
     </row>
@@ -2482,7 +2486,7 @@
       <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="15">
         <v>0.583333333333333</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -2492,7 +2496,7 @@
         <v>48</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="18">
+      <c r="J6" s="24">
         <v>5</v>
       </c>
     </row>
@@ -2502,7 +2506,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="7"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="14">
+      <c r="F7" s="15">
         <v>0.666666666666667</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -2512,7 +2516,7 @@
         <v>49</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="18">
+      <c r="J7" s="24">
         <v>6</v>
       </c>
     </row>
@@ -2528,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="13">
+      <c r="F8" s="14">
         <v>0.583333333333333</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -2538,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="18">
+      <c r="J8" s="24">
         <v>7</v>
       </c>
     </row>
@@ -2548,7 +2552,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="13">
+      <c r="F9" s="14">
         <v>0.666666666666667</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2558,7 +2562,7 @@
         <v>45</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="18">
+      <c r="J9" s="24">
         <v>8</v>
       </c>
     </row>
@@ -2578,7 +2582,7 @@
       <c r="E10" s="5">
         <v>3</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="14">
         <v>0.583333333333333</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2590,7 +2594,7 @@
       <c r="I10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="24">
         <v>9</v>
       </c>
     </row>
@@ -2600,7 +2604,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="6" t="s">
         <v>44</v>
       </c>
@@ -2610,7 +2614,7 @@
       <c r="I11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="24">
         <v>10</v>
       </c>
     </row>
@@ -2626,7 +2630,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="14">
+      <c r="F12" s="15">
         <v>0.583333333333333</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -2638,7 +2642,7 @@
       <c r="I12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="24">
         <v>11</v>
       </c>
     </row>
@@ -2648,7 +2652,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="7" t="s">
         <v>48</v>
       </c>
@@ -2658,7 +2662,7 @@
       <c r="I13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="24">
         <v>12</v>
       </c>
     </row>
@@ -2669,80 +2673,79 @@
       <c r="B14" s="4">
         <v>43253</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="15">
+      <c r="F14" s="17">
         <v>0.583333333333333</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="18" t="s">
         <v>31</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="24">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="15">
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17">
         <v>0.666666666666667</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="18">
+      <c r="J15" s="24">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:10">
-      <c r="A16" s="9">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="12">
         <v>43260</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="16">
+      <c r="F16" s="21">
         <v>0.666666666666667</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="19">
+      <c r="I16" s="25"/>
+      <c r="J16" s="26">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -2767,14 +2770,15 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D16"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="I2:I9"/>
     <mergeCell ref="I14:I16"/>
-    <mergeCell ref="D14:E15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
